--- a/学情反馈解决方案/work_sum.xlsx
+++ b/学情反馈解决方案/work_sum.xlsx
@@ -577,88 +577,88 @@
     <t>家长你好，和您反馈一下陈贵义的物理学习情况：昨天学习的是功和功率，一共听了127分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
   </si>
   <si>
-    <t>家长你好，和您反馈一下董子涵的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下张雪婷的物理学习情况：昨天学习的是功和功率，一共听了127分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+    <t>家长你好，和您反馈一下董子涵的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，因为前两节知识是连贯的，所以如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下张雪婷的物理学习情况：昨天学习的是功和功率，一共听了127分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，因为前两节知识是连贯的，所以如果有知识盲区一定要解决^_^</t>
   </si>
   <si>
     <t>家长你好，和您反馈一下郭淼的物理学习情况：昨天学习的是功和功率，一共听了129分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
   </si>
   <si>
-    <t>家长你好，和您反馈一下邢瑛的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+    <t>家长你好，和您反馈一下邢瑛的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，因为前两节知识是连贯的，所以如果有知识盲区一定要解决^_^</t>
   </si>
   <si>
     <t>家长你好，和您反馈一下张紫红的物理学习情况：昨天学习的是功和功率，一共听了128分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
   </si>
   <si>
-    <t>家长你好，和您反馈一下尹思源的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了86分钟的直播课程，剩下的可以看一下回放~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下凌潇楠的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下宋天宇的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了82分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下崔菁菁的物理学习情况：昨天学习的是功和功率，一共听了129分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+    <t>家长你好，和您反馈一下尹思源的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了86分钟的直播课程，剩下的可以看一下回放~然后作业已经改完了，但是没有及格，因为前两节知识是连贯的，所以如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下凌潇楠的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下宋天宇的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了82分钟的直播课程，剩下的可以看一下回放~但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下崔菁菁的物理学习情况：昨天学习的是功和功率，一共听了129分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，因为前两节知识是连贯的，所以如果有知识盲区一定要解决^_^</t>
   </si>
   <si>
     <t>家长你好，和您反馈一下李宇惠的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
   </si>
   <si>
-    <t>家长你好，和您反馈一下黄路文的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下刘雨的物理学习情况：昨天学习的是功和功率，一共听了128分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下沈煜博的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下杰参罗布的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了20分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下孙华阳的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下张敏的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下武雅楠的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下周月婷的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了69分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下陈钰林的物理学习情况：昨天学习的是功和功率，一共听了128分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下邓鑫钰的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+    <t>家长你好，和您反馈一下黄路文的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下刘雨的物理学习情况：昨天学习的是功和功率，一共听了128分钟的直播课程，继续保持~但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下沈煜博的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下杰参罗布的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了20分钟的直播课程，剩下的可以看一下回放~但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下孙华阳的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下张敏的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下武雅楠的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下周月婷的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了69分钟的直播课程，剩下的可以看一下回放~但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下陈钰林的物理学习情况：昨天学习的是功和功率，一共听了128分钟的直播课程，继续保持~但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下邓鑫钰的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
   </si>
   <si>
     <t>家长你好，和您反馈一下祁昀玮的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
   </si>
   <si>
-    <t>家长你好，和您反馈一下孟祥睿的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下林嘉勇的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下李鑫祥的物理学习情况：昨天学习的是功和功率，一共听了102分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下陈敬宇的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+    <t>家长你好，和您反馈一下孟祥睿的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下林嘉勇的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下李鑫祥的物理学习情况：昨天学习的是功和功率，一共听了102分钟的直播课程，继续保持~但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下陈敬宇的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
   </si>
   <si>
     <t>家长你好，和您反馈一下张琰的物理学习情况：昨天学习的是功和功率，一共听了128分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
   </si>
   <si>
-    <t>家长你好，和您反馈一下申思雨的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下王森的物理学习情况：昨天学习的是功和功率，一共听了106分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+    <t>家长你好，和您反馈一下申思雨的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下王森的物理学习情况：昨天学习的是功和功率，一共听了106分钟的直播课程，继续保持~但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
   </si>
   <si>
     <t>家长你好，和您反馈一下翟海洋的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了90分钟的直播课程，剩下的可以看一下回放~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
@@ -667,40 +667,40 @@
     <t>家长你好，和您反馈一下杨瑜涵的物理学习情况：昨天学习的是功和功率，一共听了124分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
   </si>
   <si>
-    <t>家长你好，和您反馈一下梁荃的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+    <t>家长你好，和您反馈一下梁荃的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
   </si>
   <si>
     <t>家长你好，和您反馈一下孙红梅的物理学习情况：昨天学习的是功和功率，一共听了127分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
   </si>
   <si>
-    <t>家长你好，和您反馈一下朱宇的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+    <t>家长你好，和您反馈一下朱宇的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
   </si>
   <si>
     <t>家长你好，和您反馈一下汪舒毅的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
   </si>
   <si>
-    <t>家长你好，和您反馈一下余政暄的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下刘博芝的物理学习情况：昨天学习的是功和功率，一共听了125分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+    <t>家长你好，和您反馈一下余政暄的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下刘博芝的物理学习情况：昨天学习的是功和功率，一共听了125分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，因为前两节知识是连贯的，所以如果有知识盲区一定要解决^_^</t>
   </si>
   <si>
     <t>家长你好，和您反馈一下兰欣悦的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
   </si>
   <si>
-    <t>家长你好，和您反馈一下张鹏军的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+    <t>家长你好，和您反馈一下张鹏军的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，因为前两节知识是连贯的，所以如果有知识盲区一定要解决^_^</t>
   </si>
   <si>
     <t>家长你好，和您反馈一下杨欣娴的物理学习情况：昨天学习的是功和功率，一共听了128分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
   </si>
   <si>
-    <t>家长你好，和您反馈一下邱冰的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+    <t>家长你好，和您反馈一下邱冰的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，因为前两节知识是连贯的，所以如果有知识盲区一定要解决^_^</t>
   </si>
   <si>
     <t>家长你好，和您反馈一下袁紫玉的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
   </si>
   <si>
-    <t>家长你好，和您反馈一下景嘉锐的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了48分钟的直播课程，剩下的可以看一下回放~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+    <t>家长你好，和您反馈一下景嘉锐的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了48分钟的直播课程，剩下的可以看一下回放~然后作业已经改完了，但是没有及格，因为前两节知识是连贯的，所以如果有知识盲区一定要解决^_^</t>
   </si>
   <si>
     <t>家长你好，和您反馈一下张宇的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
@@ -709,31 +709,31 @@
     <t>家长你好，和您反馈一下张宇轩的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
   </si>
   <si>
-    <t>家长你好，和您反馈一下车乐的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了84分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+    <t>家长你好，和您反馈一下车乐的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了84分钟的直播课程，剩下的可以看一下回放~但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
   </si>
   <si>
     <t>家长你好，和您反馈一下冯梦瑶的物理学习情况：昨天学习的是功和功率，一共听了111分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
   </si>
   <si>
-    <t>家长你好，和您反馈一下刘宇航的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下马苗苗的物理学习情况：昨天学习的是功和功率，一共听了128分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下石津铭的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了7分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下黄轩的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下查格西的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下赵琳的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下刘家欣的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了44分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+    <t>家长你好，和您反馈一下刘宇航的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下马苗苗的物理学习情况：昨天学习的是功和功率，一共听了128分钟的直播课程，继续保持~但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下石津铭的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了7分钟的直播课程，剩下的可以看一下回放~但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下黄轩的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下查格西的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下赵琳的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下刘家欣的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了44分钟的直播课程，剩下的可以看一下回放~但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
   </si>
   <si>
     <t>家长你好，和您反馈一下孔思佳的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了89分钟的直播课程，剩下的可以看一下回放~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
@@ -742,76 +742,76 @@
     <t>家长你好，和您反馈一下陈九洲的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了97分钟的直播课程，剩下的可以看一下回放~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
   </si>
   <si>
-    <t>家长你好，和您反馈一下李卓蔓的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了20分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下吴琪的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下杨婧的物理学习情况：昨天学习的是功和功率，一共听了129分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下郭君仪的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了16分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下祝鑫鋆的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了90分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下颜乔伊的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下刘颖洁的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+    <t>家长你好，和您反馈一下李卓蔓的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了20分钟的直播课程，剩下的可以看一下回放~但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下吴琪的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下杨婧的物理学习情况：昨天学习的是功和功率，一共听了129分钟的直播课程，继续保持~但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下郭君仪的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了16分钟的直播课程，剩下的可以看一下回放~但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下祝鑫鋆的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了90分钟的直播课程，剩下的可以看一下回放~但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下颜乔伊的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下刘颖洁的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
   </si>
   <si>
     <t>家长你好，和您反馈一下范紫萱的物理学习情况：昨天学习的是功和功率，一共听了108分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
   </si>
   <si>
-    <t>家长你好，和您反馈一下章灵的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下周晨的物理学习情况：昨天学习的是功和功率，一共听了102分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下安润泽的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下史嘉鑫的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下车海博的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+    <t>家长你好，和您反馈一下章灵的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下周晨的物理学习情况：昨天学习的是功和功率，一共听了102分钟的直播课程，继续保持~但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下安润泽的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下史嘉鑫的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下车海博的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
   </si>
   <si>
     <t>家长你好，和您反馈一下海溶哲的物理学习情况：昨天学习的是功和功率，一共听了126分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
   </si>
   <si>
-    <t>家长你好，和您反馈一下王晓慧的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下马俊的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下李秀霞的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下黄颖琦的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+    <t>家长你好，和您反馈一下王晓慧的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下马俊的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下李秀霞的物理学习情况：昨天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，因为前两节知识是连贯的，所以如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下黄颖琦的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
   </si>
   <si>
     <t>家长你好，和您反馈一下高颖的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了97分钟的直播课程，剩下的可以看一下回放~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
   </si>
   <si>
-    <t>家长你好，和您反馈一下孙洋的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下王籽硕的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下邓宇晴的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了3分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下徐红惠的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下蔡雨晴的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了1分钟的直播课程，剩下的可以看一下回放~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+    <t>家长你好，和您反馈一下孙洋的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下王籽硕的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下邓宇晴的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了3分钟的直播课程，剩下的可以看一下回放~但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下徐红惠的物理学习情况：昨天学习的是功和功率，孩子由于时间原因没有参加今天的直播课，但是作业还没有提交，尽量在今天完成，避免影响今天的课程^_^</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下蔡雨晴的物理学习情况：昨天学习的是功和功率，昨天中午可能来晚了，只听了1分钟的直播课程，剩下的可以看一下回放~然后作业已经改完了，但是没有及格，因为前两节知识是连贯的，所以如果有知识盲区一定要解决^_^</t>
   </si>
 </sst>
 </file>
